--- a/Data/organe_korrelation.xlsx
+++ b/Data/organe_korrelation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_mai2022/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FBE5C27-DCC3-4E03-B822-FAE5042546A0}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81BA1979-C05E-4574-B3F6-E35634F17E3D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42AEB3F2-0167-4A29-93B6-B9A1DC3688F2}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,7 +409,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>62.6</v>
+        <v>52.8</v>
       </c>
       <c r="B2">
         <v>1.71</v>
@@ -417,167 +417,128 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="B3">
         <v>1.69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>44.2</v>
-      </c>
       <c r="B4">
         <v>1.79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>65</v>
-      </c>
       <c r="B5">
         <v>1.43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>70.599999999999994</v>
-      </c>
       <c r="B6">
         <v>1.45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>62.5</v>
-      </c>
       <c r="B7">
         <v>1.99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>61.6</v>
+        <v>73.3</v>
       </c>
       <c r="B8">
         <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>62.9</v>
-      </c>
       <c r="B9">
         <v>1.25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>54.2</v>
+        <v>52.6</v>
       </c>
       <c r="B10">
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>60.9</v>
-      </c>
       <c r="B11">
         <v>1.81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>54.7</v>
-      </c>
       <c r="B12">
         <v>2.38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>62.3</v>
+        <v>56.6</v>
       </c>
       <c r="B13">
         <v>1.96</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>64.3</v>
-      </c>
       <c r="B14">
         <v>2.14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>59.1</v>
+        <v>55.1</v>
       </c>
       <c r="B15">
         <v>1.8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>51.1</v>
-      </c>
       <c r="B16">
         <v>1.86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>59.9</v>
+        <v>49.4</v>
       </c>
       <c r="B17">
         <v>1.69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>48.6</v>
-      </c>
       <c r="B18">
         <v>1.69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>63.4</v>
-      </c>
       <c r="B19">
         <v>1.59</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>54.7</v>
+        <v>53.3</v>
       </c>
       <c r="B20">
         <v>1.7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>65.3</v>
-      </c>
       <c r="B21">
         <v>1.26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>54.7</v>
-      </c>
       <c r="B22">
         <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>56.3</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>1.55</v>
@@ -585,7 +546,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>63.6</v>
+        <v>81.3</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -593,24 +554,18 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>58.5</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="B25">
         <v>2.04</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>63.6</v>
-      </c>
       <c r="B26">
         <v>1.79</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>66.2</v>
-      </c>
       <c r="B27">
         <v>1.97</v>
       </c>

--- a/Data/organe_korrelation.xlsx
+++ b/Data/organe_korrelation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_mai2022/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81BA1979-C05E-4574-B3F6-E35634F17E3D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD8B3D7-3BBD-413F-85F8-14480573F7AD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42AEB3F2-0167-4A29-93B6-B9A1DC3688F2}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,11 +424,17 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>48.9</v>
+      </c>
       <c r="B4">
         <v>1.79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>55.1</v>
+      </c>
       <c r="B5">
         <v>1.43</v>
       </c>
@@ -465,6 +471,9 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>58.3</v>
+      </c>
       <c r="B11">
         <v>1.81</v>
       </c>
@@ -514,6 +523,9 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>52.1</v>
+      </c>
       <c r="B19">
         <v>1.59</v>
       </c>
@@ -527,11 +539,17 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>65.5</v>
+      </c>
       <c r="B21">
         <v>1.26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>50.6</v>
+      </c>
       <c r="B22">
         <v>1.5</v>
       </c>
@@ -561,6 +579,9 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>54.9</v>
+      </c>
       <c r="B26">
         <v>1.79</v>
       </c>

--- a/Data/organe_korrelation.xlsx
+++ b/Data/organe_korrelation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_mai2022/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD8B3D7-3BBD-413F-85F8-14480573F7AD}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BD3A6C-0358-419A-BC0B-E8B0C4E5085C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42AEB3F2-0167-4A29-93B6-B9A1DC3688F2}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,6 +445,9 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>54.9</v>
+      </c>
       <c r="B7">
         <v>1.99</v>
       </c>
@@ -479,6 +482,9 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>75.8</v>
+      </c>
       <c r="B12">
         <v>2.38</v>
       </c>
@@ -492,6 +498,9 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>77.2</v>
+      </c>
       <c r="B14">
         <v>2.14</v>
       </c>
@@ -505,6 +514,9 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>51.6</v>
+      </c>
       <c r="B16">
         <v>1.86</v>
       </c>
@@ -518,6 +530,9 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>48.2</v>
+      </c>
       <c r="B18">
         <v>1.69</v>
       </c>
@@ -587,6 +602,9 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>52.8</v>
+      </c>
       <c r="B27">
         <v>1.97</v>
       </c>

--- a/Data/organe_korrelation.xlsx
+++ b/Data/organe_korrelation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_mai2022/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BD3A6C-0358-419A-BC0B-E8B0C4E5085C}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86538814-77AD-4B65-B21C-0463C4663704}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42AEB3F2-0167-4A29-93B6-B9A1DC3688F2}"/>
   </bookViews>
@@ -393,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8BF834-ACC5-4D01-8152-8A3FBF4B17E7}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -440,6 +440,9 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>60.9</v>
+      </c>
       <c r="B6">
         <v>1.45</v>
       </c>
@@ -461,6 +464,9 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>78.5</v>
+      </c>
       <c r="B9">
         <v>1.25</v>
       </c>
@@ -602,9 +608,6 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>52.8</v>
-      </c>
       <c r="B27">
         <v>1.97</v>
       </c>

--- a/Data/organe_korrelation.xlsx
+++ b/Data/organe_korrelation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_mai2022/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86538814-77AD-4B65-B21C-0463C4663704}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{914808C6-A030-4291-8CAB-F467E2ABB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA09516B-A9FD-4610-9EBA-00963EB4A9B8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42AEB3F2-0167-4A29-93B6-B9A1DC3688F2}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,11 +608,15 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>54.1</v>
+      </c>
       <c r="B27">
         <v>1.97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>